--- a/Documentacion/BitacoraEP_AlcantaraLaMonja.xlsx
+++ b/Documentacion/BitacoraEP_AlcantaraLaMonja.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISIL_2023_1\Aplicaciones_I\NRC2621\Evaluaciones\Parcial\EParcial_AlcantartaLamonja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ISIL DESARROLLO DE SOTFWARE\DESARROLLO DE APLICACIONES\Proyecto-Institutec\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B7824-6C01-42D0-A7A7-EF21A7FED767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentacion" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Integrantes</t>
   </si>
@@ -87,19 +88,10 @@
     <t>Fernandez Canales</t>
   </si>
   <si>
-    <t xml:space="preserve">Brigith Estefanny Selena </t>
-  </si>
-  <si>
-    <t>Gamero Llanto</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orlando Alonso </t>
   </si>
   <si>
     <t>Gonzales Paz</t>
-  </si>
-  <si>
-    <t>gamerobrigith@gmail.com</t>
   </si>
   <si>
     <t>orlando13gonzales@gmail.com</t>
@@ -234,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,7 +424,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,6 +432,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,14 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,7 +635,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1029,11 +1027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,12 +1045,12 @@
   <sheetData>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1073,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,49 +1108,35 @@
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1167,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,19 +1282,18 @@
     <mergeCell ref="B13:D13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{9D29C6F9-0D8E-4FFB-A09C-C6B564A5B94E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1338,47 +1321,47 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1388,10 +1371,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1415,78 +1398,78 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>52</v>
+      <c r="B6" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>55</v>
+      <c r="B9" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
-        <v>56</v>
+      <c r="B10" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>59</v>
+      <c r="B13" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>62</v>
+      <c r="B20" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
-        <v>64</v>
+      <c r="B24" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
-        <v>65</v>
+      <c r="B25" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A5:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1528,7 +1511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A5:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
